--- a/data/trans_bre/P6903-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P6903-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>216,34%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-38,92; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-22,7; 74,62</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-48,37; 33,93</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; 51,44</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1005,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,87; 35,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,48; 32,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,3; 31,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,29; 26,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,07; 159,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,16; 168,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,8; 114,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,62; 103,81</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,59; 5,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 28,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 28,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; 16,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,61; 20,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,01; 165,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; 105,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,11; 54,21</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,01%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,68; 25,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,28; 16,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,57; 19,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,05; 15,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,54; 125,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,14; 84,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,58; 54,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,29; 49,16</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,15%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,88%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,6; 6,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 31,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,8; 8,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,59; 31,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,63; 21,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,93; 255,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,56; 22,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,69; 130,0</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 6,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 19,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 11,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 14,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,27; 23,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,63; 94,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,89; 33,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 47,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6903-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,69</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>108,04%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>216,34%</t>
+          <t>30,51%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 0,0</t>
+          <t>-10,62; 30,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 74,62</t>
+          <t>-8,1; 31,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 33,93</t>
+          <t>-18,33; 24,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 51,44</t>
+          <t>-6,5; 26,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,6; 156,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1005,8</t>
+          <t>-29,38; 163,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,35; 100,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,43; 134,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>-30,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>7,74%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 35,24</t>
+          <t>-22,59; 5,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 32,91</t>
+          <t>-3,61; 28,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 31,8</t>
+          <t>-4,7; 28,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 26,05</t>
+          <t>-9,64; 15,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 159,25</t>
+          <t>-62,61; 20,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 168,62</t>
+          <t>-16,01; 165,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 114,36</t>
+          <t>-12,85; 105,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 103,81</t>
+          <t>-21,83; 53,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-30,89%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>-27,98%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 5,44</t>
+          <t>-8,68; 25,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 28,75</t>
+          <t>-15,28; 16,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 28,03</t>
+          <t>-11,57; 19,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 16,51</t>
+          <t>-38,03; 9,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 20,25</t>
+          <t>-29,54; 125,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 165,26</t>
+          <t>-46,14; 84,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 105,25</t>
+          <t>-25,58; 54,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 54,21</t>
+          <t>-76,49; 28,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>18,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>-14,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>-17,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,01%</t>
+          <t>56,12%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 25,29</t>
+          <t>-18,6; 6,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 16,98</t>
+          <t>3,54; 31,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 19,01</t>
+          <t>-24,8; 8,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 15,08</t>
+          <t>5,45; 31,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 125,35</t>
+          <t>-42,63; 21,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 84,34</t>
+          <t>10,93; 255,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 54,55</t>
+          <t>-47,56; 22,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 49,16</t>
+          <t>12,56; 136,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,32</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,67</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-14,12%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-17,15%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,88%</t>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 6,84</t>
+          <t>-8,59; 6,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 31,9</t>
+          <t>2,07; 19,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 8,74</t>
+          <t>-6,24; 11,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 31,48</t>
+          <t>-8,58; 12,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 21,9</t>
+          <t>-25,27; 23,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 255,35</t>
+          <t>7,63; 94,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 22,69</t>
+          <t>-13,89; 33,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,69; 130,0</t>
+          <t>-21,58; 41,67</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,86</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-2,58%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>45,59%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>21,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; 6,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 19,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 11,43</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 14,76</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-25,27; 23,71</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 94,47</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-13,89; 33,39</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 47,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P6903-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 30,15</t>
+          <t>-7,63; 29,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 31,51</t>
+          <t>-6,1; 33,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 24,37</t>
+          <t>-19,5; 23,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 26,23</t>
+          <t>-7,05; 26,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 156,28</t>
+          <t>-27,47; 144,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 163,34</t>
+          <t>-19,69; 181,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 100,39</t>
+          <t>-48,22; 95,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 134,59</t>
+          <t>-18,84; 138,43</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 5,44</t>
+          <t>-23,35; 4,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 28,75</t>
+          <t>-2,22; 28,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 28,03</t>
+          <t>-6,92; 29,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 15,7</t>
+          <t>-10,83; 15,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 20,25</t>
+          <t>-62,73; 20,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 165,26</t>
+          <t>-7,23; 175,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 105,25</t>
+          <t>-17,86; 109,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 53,73</t>
+          <t>-24,49; 54,56</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 25,29</t>
+          <t>-7,39; 25,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 16,98</t>
+          <t>-14,56; 17,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 19,01</t>
+          <t>-11,31; 20,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 9,54</t>
+          <t>-37,42; 11,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 125,35</t>
+          <t>-27,79; 136,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 84,34</t>
+          <t>-44,54; 81,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 54,55</t>
+          <t>-24,43; 56,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,49; 28,51</t>
+          <t>-75,12; 33,03</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 6,84</t>
+          <t>-18,51; 7,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 31,9</t>
+          <t>3,14; 34,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 8,74</t>
+          <t>-22,61; 9,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 31,38</t>
+          <t>3,94; 30,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 21,9</t>
+          <t>-44,03; 23,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 255,35</t>
+          <t>9,34; 267,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 22,69</t>
+          <t>-45,29; 26,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 136,57</t>
+          <t>11,53; 137,31</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 6,98</t>
+          <t>-8,16; 8,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 19,21</t>
+          <t>2,61; 18,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 11,43</t>
+          <t>-6,47; 12,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 12,87</t>
+          <t>-8,22; 12,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 23,71</t>
+          <t>-23,62; 30,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,63; 94,47</t>
+          <t>8,93; 90,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 33,39</t>
+          <t>-15,05; 35,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 41,67</t>
+          <t>-19,51; 41,7</t>
         </is>
       </c>
     </row>
